--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
   <si>
     <t>#</t>
   </si>
@@ -64,6 +64,12 @@
     <t>品质</t>
   </si>
   <si>
+    <t>后续任务列表</t>
+  </si>
+  <si>
+    <t>是否进入完成列表</t>
+  </si>
+  <si>
     <t>TaskType</t>
   </si>
   <si>
@@ -94,22 +100,34 @@
     <t>GetConditionListStr</t>
   </si>
   <si>
+    <t>CommitConditionListStr</t>
+  </si>
+  <si>
     <t>CommitCmdListStr</t>
   </si>
   <si>
     <t>Quality</t>
   </si>
   <si>
+    <t>NextList</t>
+  </si>
+  <si>
+    <t>IsEnterFinish</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
+    <t>long[]</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>int[]</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>bool</t>
   </si>
 </sst>
 </file>
@@ -1083,10 +1101,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:P6"/>
+  <dimension ref="C2:S6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
@@ -1102,12 +1120,11 @@
     <col min="11" max="11" width="12.125" style="2" customWidth="1"/>
     <col min="12" max="12" width="11.375" style="2" customWidth="1"/>
     <col min="13" max="13" width="9" style="2"/>
-    <col min="14" max="14" width="17.25" style="2" customWidth="1"/>
-    <col min="15" max="15" width="16.5" style="2" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="2"/>
+    <col min="14" max="16" width="14.125" style="2" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:10">
+    <row r="2" spans="4:16">
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1123,8 +1140,20 @@
       <c r="J2" s="2" t="s">
         <v>1</v>
       </c>
+      <c r="L2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="3:16">
+    <row r="3" spans="3:19">
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
@@ -1165,91 +1194,118 @@
         <v>14</v>
       </c>
       <c r="P3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>15</v>
       </c>
+      <c r="R3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4" spans="3:16">
+    <row r="4" spans="3:19">
       <c r="C4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P4" s="4" t="s">
-        <v>27</v>
+        <v>29</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="5" spans="3:16">
+    <row r="5" spans="3:19">
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>28</v>
+        <v>35</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1"/>

--- a/Excel/TaskConfig.xlsx
+++ b/Excel/TaskConfig.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="CommonTask" sheetId="3" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="43">
   <si>
     <t>#</t>
   </si>
@@ -43,6 +46,15 @@
     <t>名称</t>
   </si>
   <si>
+    <t>名称备注</t>
+  </si>
+  <si>
+    <t>描述备注</t>
+  </si>
+  <si>
+    <t>描述参数</t>
+  </si>
+  <si>
     <t>完成是否显示</t>
   </si>
   <si>
@@ -85,6 +97,9 @@
     <t>Desc</t>
   </si>
   <si>
+    <t>DescArgs</t>
+  </si>
+  <si>
     <t>FinishShow</t>
   </si>
   <si>
@@ -121,13 +136,16 @@
     <t>long[]</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>string</t>
   </si>
   <si>
-    <t>bool</t>
-  </si>
-  <si>
     <t>int[]</t>
+  </si>
+  <si>
+    <t>成就</t>
   </si>
 </sst>
 </file>
@@ -767,10 +785,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -841,6 +865,108 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Language"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>Id</v>
+          </cell>
+          <cell r="D3" t="str">
+            <v>内容</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Id</v>
+          </cell>
+          <cell r="D4" t="str">
+            <v>Msg</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="C5" t="str">
+            <v>int</v>
+          </cell>
+          <cell r="D5" t="str">
+            <v>string</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="C6">
+            <v>1</v>
+          </cell>
+          <cell r="D6" t="str">
+            <v>更大，更好</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="C7">
+            <v>2</v>
+          </cell>
+          <cell r="D7" t="str">
+            <v>将大本营升至{0}级</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="C8">
+            <v>3</v>
+          </cell>
+          <cell r="D8" t="str">
+            <v>偷金手</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="C9">
+            <v>4</v>
+          </cell>
+          <cell r="D9" t="str">
+            <v>偷水手</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="C10">
+            <v>5</v>
+          </cell>
+          <cell r="D10" t="str">
+            <v>偷油手</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="C11">
+            <v>6</v>
+          </cell>
+          <cell r="D11" t="str">
+            <v>获得{0}金币</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="C12">
+            <v>7</v>
+          </cell>
+          <cell r="D12" t="str">
+            <v>获得{0}圣水</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="C13">
+            <v>8</v>
+          </cell>
+          <cell r="D13" t="str">
+            <v>获得{0}石油</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1101,214 +1227,883 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C2:S6"/>
+  <dimension ref="B2:V59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="21.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="12.75" style="2" customWidth="1"/>
-    <col min="3" max="3" width="7.49166666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="8.26666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="10.375" style="2" customWidth="1"/>
-    <col min="7" max="9" width="9" style="2"/>
-    <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
-    <col min="11" max="11" width="12.125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="11.375" style="2" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2"/>
-    <col min="14" max="16" width="14.125" style="2" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="21.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.75" style="4" customWidth="1"/>
+    <col min="3" max="3" width="7.49166666666667" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.26666666666667" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9" style="4"/>
+    <col min="6" max="6" width="10.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="9" style="4"/>
+    <col min="8" max="8" width="7.38333333333333" style="4" customWidth="1"/>
+    <col min="9" max="9" width="6.40833333333333" style="4" customWidth="1"/>
+    <col min="10" max="10" width="9.125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.425" style="4" customWidth="1"/>
+    <col min="12" max="12" width="14.125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="12.125" style="4" customWidth="1"/>
+    <col min="15" max="15" width="11.375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9" style="4"/>
+    <col min="17" max="19" width="14.125" style="4" customWidth="1"/>
+    <col min="20" max="21" width="9" style="4"/>
+    <col min="22" max="22" width="14.2333333333333" style="4" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="4:16">
-      <c r="D2" s="2" t="s">
+    <row r="2" spans="4:19">
+      <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="3:19">
-      <c r="C3" s="4" t="s">
+      <c r="J2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="3:22">
+      <c r="C3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="N3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="O3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q3" s="4" t="s">
+      <c r="P3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="Q3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="R3" s="6" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="3:19">
-      <c r="C4" s="4" t="s">
+      <c r="S3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22">
+      <c r="C4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="4" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="I4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="M4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="N4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="O4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="P4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="Q4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="R4" s="6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="3:19">
-      <c r="C5" s="4" t="s">
+      <c r="S4" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G5" s="4" t="s">
+      <c r="T4" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="U4" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J5" s="4" t="s">
+      <c r="V4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="4" t="s">
+    </row>
+    <row r="5" spans="3:22">
+      <c r="C5" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="S5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="V5" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" spans="2:22">
+      <c r="B6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="5"/>
+      <c r="T6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" s="1" customFormat="1" spans="3:14">
+      <c r="C7" s="1">
+        <v>900001</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="1">
+        <v>2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="J7" s="1" t="str">
+        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
+        <v>更大，更好</v>
+      </c>
+      <c r="K7" s="1" t="str">
+        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
+        <v>将大本营升至{0}级</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" spans="3:22">
+      <c r="C8" s="1">
+        <v>900002</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>5</v>
+      </c>
+      <c r="G8" s="2">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1" t="str">
+        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
+        <v>更大，更好</v>
+      </c>
+      <c r="K8" s="1" t="str">
+        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
+        <v>将大本营升至{0}级</v>
+      </c>
+      <c r="L8" s="2">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="2">
+        <v>1</v>
+      </c>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" s="3" customFormat="1" spans="3:22">
+      <c r="C9" s="1">
+        <v>900003</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="3">
+        <v>8</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1" t="str">
+        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
+        <v>更大，更好</v>
+      </c>
+      <c r="K9" s="1" t="str">
+        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
+        <v>将大本营升至{0}级</v>
+      </c>
+      <c r="L9" s="3">
+        <v>8</v>
+      </c>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" spans="2:22">
+      <c r="B10" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" s="2" customFormat="1" spans="3:22">
+      <c r="C11" s="3">
+        <v>900011</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>6</v>
+      </c>
+      <c r="J11" s="1" t="str">
+        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
+        <v>偷金手</v>
+      </c>
+      <c r="K11" s="1" t="str">
+        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
+        <v>获得{0}金币</v>
+      </c>
+      <c r="L11" s="2">
+        <v>100000</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="2">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" s="2" customFormat="1" spans="3:22">
+      <c r="C12" s="3">
+        <v>900012</v>
+      </c>
+      <c r="E12" s="2">
+        <v>1</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H12" s="2">
+        <v>3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>6</v>
+      </c>
+      <c r="J12" s="1" t="str">
+        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
+        <v>偷金手</v>
+      </c>
+      <c r="K12" s="1" t="str">
+        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
+        <v>获得{0}金币</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="2">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" s="2" customFormat="1" spans="3:22">
+      <c r="C13" s="3">
+        <v>900013</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="2">
+        <v>3</v>
+      </c>
+      <c r="G13" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="H13" s="2">
+        <v>3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>6</v>
+      </c>
+      <c r="J13" s="1" t="str">
+        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
+        <v>偷金手</v>
+      </c>
+      <c r="K13" s="1" t="str">
+        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
+        <v>获得{0}金币</v>
+      </c>
+      <c r="L13" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="2">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" s="2" customFormat="1" spans="3:22">
+      <c r="C14" s="3">
+        <v>900014</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4</v>
+      </c>
+      <c r="I14" s="2">
+        <v>7</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
+        <v>偷水手</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
+        <v>获得{0}圣水</v>
+      </c>
+      <c r="L14" s="2">
+        <v>100000</v>
+      </c>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>1</v>
+      </c>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" s="2" customFormat="1" spans="3:22">
+      <c r="C15" s="3">
+        <v>900015</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H15" s="2">
+        <v>4</v>
+      </c>
+      <c r="I15" s="2">
+        <v>7</v>
+      </c>
+      <c r="J15" s="1" t="str">
+        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
+        <v>偷水手</v>
+      </c>
+      <c r="K15" s="1" t="str">
+        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
+        <v>获得{0}圣水</v>
+      </c>
+      <c r="L15" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="2">
+        <v>1</v>
+      </c>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" s="2" customFormat="1" spans="3:22">
+      <c r="C16" s="3">
+        <v>900016</v>
+      </c>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="H16" s="2">
+        <v>4</v>
+      </c>
+      <c r="I16" s="2">
+        <v>7</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
+        <v>偷水手</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
+        <v>获得{0}圣水</v>
+      </c>
+      <c r="L16" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1</v>
+      </c>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" s="2" customFormat="1" spans="3:22">
+      <c r="C17" s="3">
+        <v>900017</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>100000</v>
+      </c>
+      <c r="H17" s="2">
+        <v>5</v>
+      </c>
+      <c r="I17" s="2">
+        <v>8</v>
+      </c>
+      <c r="J17" s="1" t="str">
+        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
+        <v>偷油手</v>
+      </c>
+      <c r="K17" s="1" t="str">
+        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
+        <v>获得{0}石油</v>
+      </c>
+      <c r="L17" s="2">
+        <v>100000</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" s="2" customFormat="1" spans="3:22">
+      <c r="C18" s="3">
+        <v>900018</v>
+      </c>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="H18" s="2">
+        <v>5</v>
+      </c>
+      <c r="I18" s="2">
+        <v>8</v>
+      </c>
+      <c r="J18" s="1" t="str">
+        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
+        <v>偷油手</v>
+      </c>
+      <c r="K18" s="1" t="str">
+        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
+        <v>获得{0}石油</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1000000</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="2">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" s="2" customFormat="1" spans="3:22">
+      <c r="C19" s="3">
+        <v>900019</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="H19" s="2">
+        <v>5</v>
+      </c>
+      <c r="I19" s="2">
+        <v>8</v>
+      </c>
+      <c r="J19" s="1" t="str">
+        <f>VLOOKUP(H:H,[1]Language!$C:$D,2)</f>
+        <v>偷油手</v>
+      </c>
+      <c r="K19" s="1" t="str">
+        <f>VLOOKUP(I:I,[1]Language!$C:$D,2)</f>
+        <v>获得{0}石油</v>
+      </c>
+      <c r="L19" s="2">
+        <v>10000000</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="2">
+        <v>1</v>
+      </c>
+      <c r="V19" s="1"/>
+    </row>
+    <row r="20" s="2" customFormat="1" spans="3:10">
+      <c r="C20" s="3"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" s="2" customFormat="1" spans="3:10">
+      <c r="C21" s="3"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" s="2" customFormat="1" spans="3:10">
+      <c r="C22" s="3"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" s="2" customFormat="1" spans="3:10">
+      <c r="C23" s="3"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" s="2" customFormat="1" spans="3:10">
+      <c r="C24" s="3"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" s="2" customFormat="1" spans="3:10">
+      <c r="C25" s="3"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" s="2" customFormat="1" spans="3:10">
+      <c r="C26" s="3"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" s="2" customFormat="1" spans="3:10">
+      <c r="C27" s="3"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" s="2" customFormat="1" spans="3:10">
+      <c r="C28" s="3"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" s="2" customFormat="1" spans="3:10">
+      <c r="C29" s="3"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" s="2" customFormat="1" spans="3:10">
+      <c r="C30" s="3"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" s="2" customFormat="1" spans="3:10">
+      <c r="C31" s="3"/>
+      <c r="J31" s="1"/>
+    </row>
+    <row r="32" s="2" customFormat="1" spans="3:10">
+      <c r="C32" s="3"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" s="2" customFormat="1" spans="3:10">
+      <c r="C33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="J33" s="1"/>
+    </row>
+    <row r="34" s="2" customFormat="1" spans="3:10">
+      <c r="C34" s="3"/>
+      <c r="J34" s="1"/>
+    </row>
+    <row r="35" s="2" customFormat="1" spans="3:10">
+      <c r="C35" s="3"/>
+      <c r="J35" s="1"/>
+    </row>
+    <row r="36" s="2" customFormat="1" spans="3:10">
+      <c r="C36" s="3"/>
+      <c r="J36" s="1"/>
+    </row>
+    <row r="37" s="2" customFormat="1" spans="3:10">
+      <c r="C37" s="3"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" s="2" customFormat="1" spans="3:10">
+      <c r="C38" s="3"/>
+      <c r="J38" s="1"/>
+    </row>
+    <row r="39" s="2" customFormat="1" spans="3:10">
+      <c r="C39" s="3"/>
+      <c r="J39" s="1"/>
+    </row>
+    <row r="40" s="2" customFormat="1" spans="3:10">
+      <c r="C40" s="3"/>
+      <c r="J40" s="1"/>
+    </row>
+    <row r="41" s="2" customFormat="1" spans="3:10">
+      <c r="C41" s="3"/>
+      <c r="J41" s="1"/>
+    </row>
+    <row r="42" s="2" customFormat="1" spans="3:3">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" s="2" customFormat="1" spans="3:3">
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" s="2" customFormat="1" spans="3:3">
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" s="2" customFormat="1" spans="3:3">
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" s="2" customFormat="1" spans="3:3">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" s="2" customFormat="1" spans="3:3">
+      <c r="C47" s="3"/>
+    </row>
+    <row r="48" s="2" customFormat="1" spans="3:3">
+      <c r="C48" s="3"/>
+    </row>
+    <row r="49" s="2" customFormat="1" spans="3:3">
+      <c r="C49" s="3"/>
+    </row>
+    <row r="50" s="2" customFormat="1" spans="3:3">
+      <c r="C50" s="3"/>
+    </row>
+    <row r="51" s="2" customFormat="1" spans="3:3">
+      <c r="C51" s="3"/>
+    </row>
+    <row r="52" s="2" customFormat="1" spans="3:3">
+      <c r="C52" s="3"/>
+    </row>
+    <row r="53" s="2" customFormat="1" spans="3:3">
+      <c r="C53" s="3"/>
+    </row>
+    <row r="54" s="2" customFormat="1" spans="3:3">
+      <c r="C54" s="3"/>
+    </row>
+    <row r="55" s="2" customFormat="1" spans="3:3">
+      <c r="C55" s="3"/>
+    </row>
+    <row r="56" s="2" customFormat="1" spans="3:3">
+      <c r="C56" s="3"/>
+    </row>
+    <row r="57" s="2" customFormat="1" spans="3:3">
+      <c r="C57" s="3"/>
+    </row>
+    <row r="58" s="2" customFormat="1" spans="3:3">
+      <c r="C58" s="3"/>
+    </row>
+    <row r="59" s="2" customFormat="1" spans="3:3">
+      <c r="C59" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
